--- a/05_PT/単体テスト仕様書_ファイル操作.xlsx
+++ b/05_PT/単体テスト仕様書_ファイル操作.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B2E1C-09F6-40A7-B36B-ECCC43219E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874BB055-9362-43B4-A09E-F9C04B4E6325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="931" activeTab="5" xr2:uid="{3C57107D-1214-43C9-9569-E45250B9A15F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="931" activeTab="1" xr2:uid="{3C57107D-1214-43C9-9569-E45250B9A15F}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">テスト仕様書_ファイル一覧表示!$A$2:$CY$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'テスト仕様書_ファイル表示・操作(view)'!$A$2:$CY$40</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="340">
   <si>
     <t>テスト仕様書</t>
     <rPh sb="3" eb="6">
@@ -860,28 +851,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">・fileMapper.insert(fileDate)の処理に入ること
-・fileDateの値が想定した値になっていること
-　→
-</t>
-    <rPh sb="29" eb="31">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>String uploadPath, MultipartFile[] multipartFile,DbUserDetails loginUser に引数を入れて実行された際、fileMapper.insert(fileDate)の処理に入り、fileDateに想定した値が入っていること</t>
     <rPh sb="74" eb="76">
       <t>ヒキスウ</t>
@@ -910,33 +879,6 @@
     <rPh sb="136" eb="137">
       <t>ハイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・return toMOveView(upload,model,loginUser)の処理に入ること
-・upload,model,loginUserの値が入力値のままであること
-　→</t>
-    <rPh sb="43" eb="45">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="77" eb="80">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String uploadPath
-→"C:\Users\oreor\workspace\fileServer\FileServer\test.txt\"
- MultipartFile[] multipartFile
-→
-Model model
-DbUserDetails loginUser</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1183,13 +1125,6 @@
     <rPh sb="52" eb="53">
       <t>ハイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String filePath
-→"C:\Users\oreor\workspace\fileServer\FileServer\test\"
-HttpServletResponse response
-→"org.springframework.security.web.header.HeaderWriterFilter$HeaderWriterResponse@68b57dd1"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2686,50 +2621,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>宮田さんへ
-オレンジ部分は書き換えた部分(クラス名変更には付けていません)ですので、大丈夫そうなら塗りつぶしなしに戻してここのメッセージも消しておいてもらえれば助かります。</t>
-    <rPh sb="0" eb="2">
-      <t>ミヤタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>タス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイル名のエンコードに失敗した場合(306,307行目の処理で正常いかなかった場合)、例外を受け取る</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -2786,6 +2677,75 @@
     </rPh>
     <rPh sb="82" eb="84">
       <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String filePath
+→"C:\Users\oreor\workspace\fileServer\FileServer\test\"
+HttpServletResponse response
+→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String uploadPath
+→"C:\Users\oreor\workspace\fileServer\FileServer\test.txt\"
+ MultipartFile[] multipartFile
+→
+Model model
+→{}
+DbUserDetails loginUser
+→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・return toMOveView(upload,model,loginUser)の処理に入ること
+・upload,model,loginUserの値が入力値のままであること
+</t>
+    <rPh sb="43" eb="45">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・fileMapper.insert(fileDate)の処理に入ること
+・fileDateの値が()になっていること
+　createDate→作成日時
+　createUser→"a"
+　fileId→"0"
+　fileName→"test.txt"
+　filePath→"C:\Users\oreor\workspace\fileServer\FileServer\test.txt\"
+　updateDate→作成日時
+　updateUser→"a"</t>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2841,7 +2801,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2863,12 +2823,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2939,7 +2893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3066,6 +3020,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3075,7 +3032,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3091,18 +3048,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4902,9 +4853,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="7:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -4914,7 +4865,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="7:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -4922,7 +4873,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="7:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -4930,7 +4881,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="7:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -4953,24 +4904,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
     <col min="5" max="5" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -4987,13 +4938,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>42</v>
@@ -5005,7 +4956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
@@ -5015,7 +4966,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5025,7 +4976,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5035,7 +4986,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5045,7 +4996,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5055,7 +5006,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5065,7 +5016,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5075,7 +5026,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5085,7 +5036,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <f>ROW(A10)</f>
         <v>10</v>
@@ -5095,7 +5046,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5105,7 +5056,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5115,7 +5066,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5125,7 +5076,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5135,7 +5086,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5145,7 +5096,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5155,7 +5106,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5165,7 +5116,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5193,9 +5144,9 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="14" width="4.25" style="10"/>
     <col min="15" max="23" width="4.25" style="9"/>
     <col min="24" max="24" width="4.25" style="9" customWidth="1"/>
@@ -5204,7 +5155,7 @@
     <col min="61" max="16384" width="4.25" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:109" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:109" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5339,7 +5290,7 @@
       <c r="CX2" s="33"/>
       <c r="CY2" s="33"/>
     </row>
-    <row r="3" spans="1:109" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:109" ht="54.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5468,7 +5419,7 @@
       <c r="CX3" s="36"/>
       <c r="CY3" s="36"/>
     </row>
-    <row r="4" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5480,7 +5431,7 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -5491,7 +5442,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
@@ -5502,7 +5453,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="X4" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
@@ -5517,7 +5468,7 @@
       <c r="AI4" s="18"/>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL4" s="18"/>
       <c r="AM4" s="18"/>
@@ -5582,7 +5533,7 @@
       <c r="CL4" s="26"/>
       <c r="CM4" s="27"/>
       <c r="CN4" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="CO4" s="18"/>
       <c r="CP4" s="18"/>
@@ -5596,7 +5547,7 @@
       <c r="CX4" s="18"/>
       <c r="CY4" s="18"/>
     </row>
-    <row r="5" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <f t="shared" ref="A5:A40" si="0">ROW()-3</f>
         <v>2</v>
@@ -5608,7 +5559,7 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -5619,7 +5570,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -5630,7 +5581,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
@@ -5645,7 +5596,7 @@
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
       <c r="AK5" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
@@ -5710,7 +5661,7 @@
       <c r="CL5" s="30"/>
       <c r="CM5" s="30"/>
       <c r="CN5" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="CO5" s="18"/>
       <c r="CP5" s="18"/>
@@ -5725,7 +5676,7 @@
       <c r="CY5" s="18"/>
       <c r="DE5"/>
     </row>
-    <row r="6" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5737,7 +5688,7 @@
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -5748,7 +5699,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -5759,7 +5710,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="X6" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
@@ -5774,7 +5725,7 @@
       <c r="AI6" s="18"/>
       <c r="AJ6" s="18"/>
       <c r="AK6" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL6" s="18"/>
       <c r="AM6" s="18"/>
@@ -5839,7 +5790,7 @@
       <c r="CL6" s="30"/>
       <c r="CM6" s="30"/>
       <c r="CN6" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="CO6" s="18"/>
       <c r="CP6" s="18"/>
@@ -5853,7 +5804,7 @@
       <c r="CX6" s="18"/>
       <c r="CY6" s="18"/>
     </row>
-    <row r="7" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5865,7 +5816,7 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -5876,7 +5827,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
@@ -5887,7 +5838,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
@@ -5902,7 +5853,7 @@
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
@@ -5967,7 +5918,7 @@
       <c r="CL7" s="30"/>
       <c r="CM7" s="30"/>
       <c r="CN7" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="CO7" s="18"/>
       <c r="CP7" s="18"/>
@@ -5981,7 +5932,7 @@
       <c r="CX7" s="18"/>
       <c r="CY7" s="18"/>
     </row>
-    <row r="8" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5993,7 +5944,7 @@
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -6004,7 +5955,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -6015,7 +5966,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
       <c r="X8" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
@@ -6030,7 +5981,7 @@
       <c r="AI8" s="18"/>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL8" s="18"/>
       <c r="AM8" s="18"/>
@@ -6095,7 +6046,7 @@
       <c r="CL8" s="30"/>
       <c r="CM8" s="30"/>
       <c r="CN8" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="CO8" s="18"/>
       <c r="CP8" s="18"/>
@@ -6109,7 +6060,7 @@
       <c r="CX8" s="18"/>
       <c r="CY8" s="18"/>
     </row>
-    <row r="9" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6121,7 +6072,7 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -6132,7 +6083,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -6143,7 +6094,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
@@ -6158,7 +6109,7 @@
       <c r="AI9" s="18"/>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL9" s="18"/>
       <c r="AM9" s="18"/>
@@ -6223,7 +6174,7 @@
       <c r="CL9" s="30"/>
       <c r="CM9" s="30"/>
       <c r="CN9" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="CO9" s="18"/>
       <c r="CP9" s="18"/>
@@ -6237,7 +6188,7 @@
       <c r="CX9" s="18"/>
       <c r="CY9" s="18"/>
     </row>
-    <row r="10" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6249,7 +6200,7 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -6260,7 +6211,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
@@ -6271,7 +6222,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
@@ -6286,7 +6237,7 @@
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL10" s="18"/>
       <c r="AM10" s="18"/>
@@ -6351,7 +6302,7 @@
       <c r="CL10" s="30"/>
       <c r="CM10" s="30"/>
       <c r="CN10" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="CO10" s="18"/>
       <c r="CP10" s="18"/>
@@ -6365,7 +6316,7 @@
       <c r="CX10" s="18"/>
       <c r="CY10" s="18"/>
     </row>
-    <row r="11" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6377,7 +6328,7 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -6388,7 +6339,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
@@ -6399,7 +6350,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="X11" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
@@ -6414,7 +6365,7 @@
       <c r="AI11" s="18"/>
       <c r="AJ11" s="18"/>
       <c r="AK11" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL11" s="18"/>
       <c r="AM11" s="18"/>
@@ -6479,7 +6430,7 @@
       <c r="CL11" s="30"/>
       <c r="CM11" s="30"/>
       <c r="CN11" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="CO11" s="18"/>
       <c r="CP11" s="18"/>
@@ -6493,7 +6444,7 @@
       <c r="CX11" s="18"/>
       <c r="CY11" s="18"/>
     </row>
-    <row r="12" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6505,7 +6456,7 @@
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -6516,7 +6467,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
@@ -6527,7 +6478,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
       <c r="X12" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
@@ -6542,7 +6493,7 @@
       <c r="AI12" s="18"/>
       <c r="AJ12" s="18"/>
       <c r="AK12" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
@@ -6607,7 +6558,7 @@
       <c r="CL12" s="30"/>
       <c r="CM12" s="30"/>
       <c r="CN12" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="CO12" s="18"/>
       <c r="CP12" s="18"/>
@@ -6621,7 +6572,7 @@
       <c r="CX12" s="18"/>
       <c r="CY12" s="18"/>
     </row>
-    <row r="13" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6633,7 +6584,7 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -6644,7 +6595,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
@@ -6655,7 +6606,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
@@ -6670,7 +6621,7 @@
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
       <c r="AK13" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
@@ -6735,7 +6686,7 @@
       <c r="CL13" s="30"/>
       <c r="CM13" s="30"/>
       <c r="CN13" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="CO13" s="18"/>
       <c r="CP13" s="18"/>
@@ -6749,7 +6700,7 @@
       <c r="CX13" s="18"/>
       <c r="CY13" s="18"/>
     </row>
-    <row r="14" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6761,7 +6712,7 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -6772,7 +6723,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
@@ -6783,7 +6734,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
@@ -6798,7 +6749,7 @@
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
       <c r="AK14" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL14" s="18"/>
       <c r="AM14" s="18"/>
@@ -6863,7 +6814,7 @@
       <c r="CL14" s="30"/>
       <c r="CM14" s="30"/>
       <c r="CN14" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="CO14" s="18"/>
       <c r="CP14" s="18"/>
@@ -6877,19 +6828,19 @@
       <c r="CX14" s="18"/>
       <c r="CY14" s="18"/>
     </row>
-    <row r="15" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -6900,7 +6851,7 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
@@ -6911,7 +6862,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
@@ -6926,7 +6877,7 @@
       <c r="AI15" s="18"/>
       <c r="AJ15" s="18"/>
       <c r="AK15" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL15" s="18"/>
       <c r="AM15" s="18"/>
@@ -6991,7 +6942,7 @@
       <c r="CL15" s="30"/>
       <c r="CM15" s="30"/>
       <c r="CN15" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="CO15" s="18"/>
       <c r="CP15" s="18"/>
@@ -7005,19 +6956,19 @@
       <c r="CX15" s="18"/>
       <c r="CY15" s="18"/>
     </row>
-    <row r="16" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:109" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -7028,7 +6979,7 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
@@ -7039,7 +6990,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="X16" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
@@ -7054,7 +7005,7 @@
       <c r="AI16" s="18"/>
       <c r="AJ16" s="18"/>
       <c r="AK16" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL16" s="18"/>
       <c r="AM16" s="18"/>
@@ -7119,7 +7070,7 @@
       <c r="CL16" s="30"/>
       <c r="CM16" s="30"/>
       <c r="CN16" s="18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="CO16" s="18"/>
       <c r="CP16" s="18"/>
@@ -7133,19 +7084,19 @@
       <c r="CX16" s="18"/>
       <c r="CY16" s="18"/>
     </row>
-    <row r="17" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -7156,7 +7107,7 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
@@ -7167,7 +7118,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="X17" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
@@ -7182,7 +7133,7 @@
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL17" s="18"/>
       <c r="AM17" s="18"/>
@@ -7247,7 +7198,7 @@
       <c r="CL17" s="30"/>
       <c r="CM17" s="30"/>
       <c r="CN17" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="CO17" s="18"/>
       <c r="CP17" s="18"/>
@@ -7261,19 +7212,19 @@
       <c r="CX17" s="18"/>
       <c r="CY17" s="18"/>
     </row>
-    <row r="18" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -7284,7 +7235,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
@@ -7295,7 +7246,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
       <c r="X18" s="18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
@@ -7310,7 +7261,7 @@
       <c r="AI18" s="18"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL18" s="18"/>
       <c r="AM18" s="18"/>
@@ -7375,7 +7326,7 @@
       <c r="CL18" s="30"/>
       <c r="CM18" s="30"/>
       <c r="CN18" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="CO18" s="18"/>
       <c r="CP18" s="18"/>
@@ -7389,19 +7340,19 @@
       <c r="CX18" s="18"/>
       <c r="CY18" s="18"/>
     </row>
-    <row r="19" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -7412,7 +7363,7 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
@@ -7423,7 +7374,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
       <c r="X19" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
@@ -7438,7 +7389,7 @@
       <c r="AI19" s="18"/>
       <c r="AJ19" s="18"/>
       <c r="AK19" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL19" s="18"/>
       <c r="AM19" s="18"/>
@@ -7503,7 +7454,7 @@
       <c r="CL19" s="30"/>
       <c r="CM19" s="30"/>
       <c r="CN19" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="CO19" s="18"/>
       <c r="CP19" s="18"/>
@@ -7517,19 +7468,19 @@
       <c r="CX19" s="18"/>
       <c r="CY19" s="18"/>
     </row>
-    <row r="20" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -7540,7 +7491,7 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
@@ -7551,7 +7502,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
@@ -7566,7 +7517,7 @@
       <c r="AI20" s="18"/>
       <c r="AJ20" s="18"/>
       <c r="AK20" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL20" s="18"/>
       <c r="AM20" s="18"/>
@@ -7631,7 +7582,7 @@
       <c r="CL20" s="30"/>
       <c r="CM20" s="30"/>
       <c r="CN20" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="CO20" s="18"/>
       <c r="CP20" s="18"/>
@@ -7645,19 +7596,19 @@
       <c r="CX20" s="18"/>
       <c r="CY20" s="18"/>
     </row>
-    <row r="21" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -7668,7 +7619,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
@@ -7679,7 +7630,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
       <c r="X21" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
@@ -7694,7 +7645,7 @@
       <c r="AI21" s="18"/>
       <c r="AJ21" s="18"/>
       <c r="AK21" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL21" s="18"/>
       <c r="AM21" s="18"/>
@@ -7759,7 +7710,7 @@
       <c r="CL21" s="30"/>
       <c r="CM21" s="30"/>
       <c r="CN21" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="CO21" s="18"/>
       <c r="CP21" s="18"/>
@@ -7779,19 +7730,19 @@
       <c r="DG21" s="12"/>
       <c r="DH21" s="12"/>
     </row>
-    <row r="22" spans="1:112" s="12" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:112" s="12" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -7802,7 +7753,7 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -7813,7 +7764,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="X22" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
@@ -7828,7 +7779,7 @@
       <c r="AI22" s="18"/>
       <c r="AJ22" s="18"/>
       <c r="AK22" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL22" s="18"/>
       <c r="AM22" s="18"/>
@@ -7893,7 +7844,7 @@
       <c r="CL22" s="30"/>
       <c r="CM22" s="30"/>
       <c r="CN22" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="CO22" s="18"/>
       <c r="CP22" s="18"/>
@@ -7913,19 +7864,19 @@
       <c r="DG22" s="9"/>
       <c r="DH22" s="9"/>
     </row>
-    <row r="23" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -7936,7 +7887,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -7947,7 +7898,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="X23" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
@@ -7962,7 +7913,7 @@
       <c r="AI23" s="18"/>
       <c r="AJ23" s="18"/>
       <c r="AK23" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL23" s="18"/>
       <c r="AM23" s="18"/>
@@ -8027,7 +7978,7 @@
       <c r="CL23" s="30"/>
       <c r="CM23" s="30"/>
       <c r="CN23" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="CO23" s="18"/>
       <c r="CP23" s="18"/>
@@ -8041,19 +7992,19 @@
       <c r="CX23" s="18"/>
       <c r="CY23" s="18"/>
     </row>
-    <row r="24" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -8064,7 +8015,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -8075,7 +8026,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
       <c r="X24" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
@@ -8090,7 +8041,7 @@
       <c r="AI24" s="18"/>
       <c r="AJ24" s="18"/>
       <c r="AK24" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL24" s="18"/>
       <c r="AM24" s="18"/>
@@ -8155,7 +8106,7 @@
       <c r="CL24" s="30"/>
       <c r="CM24" s="30"/>
       <c r="CN24" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="CO24" s="18"/>
       <c r="CP24" s="18"/>
@@ -8169,19 +8120,19 @@
       <c r="CX24" s="18"/>
       <c r="CY24" s="18"/>
     </row>
-    <row r="25" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -8192,7 +8143,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -8203,7 +8154,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
       <c r="X25" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
@@ -8218,7 +8169,7 @@
       <c r="AI25" s="18"/>
       <c r="AJ25" s="18"/>
       <c r="AK25" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL25" s="18"/>
       <c r="AM25" s="18"/>
@@ -8283,7 +8234,7 @@
       <c r="CL25" s="30"/>
       <c r="CM25" s="30"/>
       <c r="CN25" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="CO25" s="18"/>
       <c r="CP25" s="18"/>
@@ -8297,19 +8248,19 @@
       <c r="CX25" s="18"/>
       <c r="CY25" s="18"/>
     </row>
-    <row r="26" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -8320,7 +8271,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -8331,7 +8282,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
       <c r="X26" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
@@ -8346,7 +8297,7 @@
       <c r="AI26" s="18"/>
       <c r="AJ26" s="18"/>
       <c r="AK26" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL26" s="18"/>
       <c r="AM26" s="18"/>
@@ -8411,7 +8362,7 @@
       <c r="CL26" s="30"/>
       <c r="CM26" s="30"/>
       <c r="CN26" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CO26" s="18"/>
       <c r="CP26" s="18"/>
@@ -8425,19 +8376,19 @@
       <c r="CX26" s="18"/>
       <c r="CY26" s="18"/>
     </row>
-    <row r="27" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -8448,7 +8399,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
       <c r="O27" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -8459,7 +8410,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
       <c r="X27" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
@@ -8474,7 +8425,7 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL27" s="18"/>
       <c r="AM27" s="18"/>
@@ -8539,7 +8490,7 @@
       <c r="CL27" s="30"/>
       <c r="CM27" s="30"/>
       <c r="CN27" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="CO27" s="18"/>
       <c r="CP27" s="18"/>
@@ -8553,19 +8504,19 @@
       <c r="CX27" s="18"/>
       <c r="CY27" s="18"/>
     </row>
-    <row r="28" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
@@ -8576,7 +8527,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -8587,7 +8538,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
       <c r="X28" s="18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
@@ -8602,7 +8553,7 @@
       <c r="AI28" s="18"/>
       <c r="AJ28" s="18"/>
       <c r="AK28" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL28" s="18"/>
       <c r="AM28" s="18"/>
@@ -8667,7 +8618,7 @@
       <c r="CL28" s="30"/>
       <c r="CM28" s="30"/>
       <c r="CN28" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="CO28" s="18"/>
       <c r="CP28" s="18"/>
@@ -8681,19 +8632,19 @@
       <c r="CX28" s="18"/>
       <c r="CY28" s="18"/>
     </row>
-    <row r="29" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -8704,7 +8655,7 @@
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -8715,7 +8666,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="X29" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
@@ -8730,7 +8681,7 @@
       <c r="AI29" s="18"/>
       <c r="AJ29" s="18"/>
       <c r="AK29" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL29" s="18"/>
       <c r="AM29" s="18"/>
@@ -8795,7 +8746,7 @@
       <c r="CL29" s="30"/>
       <c r="CM29" s="30"/>
       <c r="CN29" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="CO29" s="18"/>
       <c r="CP29" s="18"/>
@@ -8809,19 +8760,19 @@
       <c r="CX29" s="18"/>
       <c r="CY29" s="18"/>
     </row>
-    <row r="30" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="14">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -8832,7 +8783,7 @@
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
       <c r="O30" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -8843,7 +8794,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="18"/>
       <c r="X30" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
@@ -8858,7 +8809,7 @@
       <c r="AI30" s="18"/>
       <c r="AJ30" s="18"/>
       <c r="AK30" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL30" s="18"/>
       <c r="AM30" s="18"/>
@@ -8923,7 +8874,7 @@
       <c r="CL30" s="30"/>
       <c r="CM30" s="30"/>
       <c r="CN30" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CO30" s="18"/>
       <c r="CP30" s="18"/>
@@ -8937,19 +8888,19 @@
       <c r="CX30" s="18"/>
       <c r="CY30" s="18"/>
     </row>
-    <row r="31" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -8960,7 +8911,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -8971,7 +8922,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
       <c r="X31" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
@@ -8986,7 +8937,7 @@
       <c r="AI31" s="18"/>
       <c r="AJ31" s="18"/>
       <c r="AK31" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL31" s="18"/>
       <c r="AM31" s="18"/>
@@ -9051,7 +9002,7 @@
       <c r="CL31" s="30"/>
       <c r="CM31" s="30"/>
       <c r="CN31" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="CO31" s="18"/>
       <c r="CP31" s="18"/>
@@ -9065,19 +9016,19 @@
       <c r="CX31" s="18"/>
       <c r="CY31" s="18"/>
     </row>
-    <row r="32" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:112" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="14">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -9088,7 +9039,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -9099,7 +9050,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="18"/>
       <c r="X32" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
@@ -9114,7 +9065,7 @@
       <c r="AI32" s="18"/>
       <c r="AJ32" s="18"/>
       <c r="AK32" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL32" s="18"/>
       <c r="AM32" s="18"/>
@@ -9179,7 +9130,7 @@
       <c r="CL32" s="30"/>
       <c r="CM32" s="30"/>
       <c r="CN32" s="18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="CO32" s="18"/>
       <c r="CP32" s="18"/>
@@ -9193,19 +9144,19 @@
       <c r="CX32" s="18"/>
       <c r="CY32" s="18"/>
     </row>
-    <row r="33" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -9216,7 +9167,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -9227,7 +9178,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="X33" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
@@ -9242,7 +9193,7 @@
       <c r="AI33" s="18"/>
       <c r="AJ33" s="18"/>
       <c r="AK33" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL33" s="18"/>
       <c r="AM33" s="18"/>
@@ -9307,7 +9258,7 @@
       <c r="CL33" s="30"/>
       <c r="CM33" s="30"/>
       <c r="CN33" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="CO33" s="18"/>
       <c r="CP33" s="18"/>
@@ -9321,19 +9272,19 @@
       <c r="CX33" s="18"/>
       <c r="CY33" s="18"/>
     </row>
-    <row r="34" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="14">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -9344,7 +9295,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -9355,7 +9306,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="18"/>
       <c r="X34" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
@@ -9370,7 +9321,7 @@
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18"/>
       <c r="AK34" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL34" s="18"/>
       <c r="AM34" s="18"/>
@@ -9435,7 +9386,7 @@
       <c r="CL34" s="30"/>
       <c r="CM34" s="30"/>
       <c r="CN34" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="CO34" s="18"/>
       <c r="CP34" s="18"/>
@@ -9449,19 +9400,19 @@
       <c r="CX34" s="18"/>
       <c r="CY34" s="18"/>
     </row>
-    <row r="35" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="14">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -9472,7 +9423,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -9483,7 +9434,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
       <c r="X35" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Y35" s="18"/>
       <c r="Z35" s="18"/>
@@ -9498,7 +9449,7 @@
       <c r="AI35" s="18"/>
       <c r="AJ35" s="18"/>
       <c r="AK35" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL35" s="18"/>
       <c r="AM35" s="18"/>
@@ -9563,7 +9514,7 @@
       <c r="CL35" s="30"/>
       <c r="CM35" s="30"/>
       <c r="CN35" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CO35" s="18"/>
       <c r="CP35" s="18"/>
@@ -9577,19 +9528,19 @@
       <c r="CX35" s="18"/>
       <c r="CY35" s="18"/>
     </row>
-    <row r="36" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="14">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -9600,7 +9551,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -9611,7 +9562,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="18"/>
       <c r="X36" s="18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
@@ -9626,7 +9577,7 @@
       <c r="AI36" s="18"/>
       <c r="AJ36" s="18"/>
       <c r="AK36" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL36" s="18"/>
       <c r="AM36" s="18"/>
@@ -9691,7 +9642,7 @@
       <c r="CL36" s="30"/>
       <c r="CM36" s="30"/>
       <c r="CN36" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="CO36" s="18"/>
       <c r="CP36" s="18"/>
@@ -9705,19 +9656,19 @@
       <c r="CX36" s="18"/>
       <c r="CY36" s="18"/>
     </row>
-    <row r="37" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="14">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -9728,7 +9679,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -9739,7 +9690,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
       <c r="X37" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
@@ -9754,7 +9705,7 @@
       <c r="AI37" s="18"/>
       <c r="AJ37" s="18"/>
       <c r="AK37" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL37" s="18"/>
       <c r="AM37" s="18"/>
@@ -9819,7 +9770,7 @@
       <c r="CL37" s="30"/>
       <c r="CM37" s="30"/>
       <c r="CN37" s="18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="CO37" s="18"/>
       <c r="CP37" s="18"/>
@@ -9833,19 +9784,19 @@
       <c r="CX37" s="18"/>
       <c r="CY37" s="18"/>
     </row>
-    <row r="38" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="14">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -9856,7 +9807,7 @@
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
@@ -9867,7 +9818,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
       <c r="X38" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
@@ -9882,7 +9833,7 @@
       <c r="AI38" s="18"/>
       <c r="AJ38" s="18"/>
       <c r="AK38" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL38" s="18"/>
       <c r="AM38" s="18"/>
@@ -9947,7 +9898,7 @@
       <c r="CL38" s="30"/>
       <c r="CM38" s="30"/>
       <c r="CN38" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="CO38" s="18"/>
       <c r="CP38" s="18"/>
@@ -9961,19 +9912,19 @@
       <c r="CX38" s="18"/>
       <c r="CY38" s="18"/>
     </row>
-    <row r="39" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -9984,7 +9935,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
@@ -9995,7 +9946,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
       <c r="X39" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
@@ -10010,7 +9961,7 @@
       <c r="AI39" s="18"/>
       <c r="AJ39" s="18"/>
       <c r="AK39" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL39" s="18"/>
       <c r="AM39" s="18"/>
@@ -10075,7 +10026,7 @@
       <c r="CL39" s="30"/>
       <c r="CM39" s="30"/>
       <c r="CN39" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="CO39" s="18"/>
       <c r="CP39" s="18"/>
@@ -10089,19 +10040,19 @@
       <c r="CX39" s="18"/>
       <c r="CY39" s="18"/>
     </row>
-    <row r="40" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="14">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -10112,7 +10063,7 @@
       <c r="M40" s="20"/>
       <c r="N40" s="21"/>
       <c r="O40" s="19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
@@ -10203,7 +10154,7 @@
       <c r="CL40" s="26"/>
       <c r="CM40" s="27"/>
       <c r="CN40" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="CO40" s="18"/>
       <c r="CP40" s="18"/>
@@ -10217,38 +10168,38 @@
       <c r="CX40" s="20"/>
       <c r="CY40" s="21"/>
     </row>
-    <row r="41" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="135" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" spans="1:103" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <autoFilter ref="A2:CY40" xr:uid="{0CB109C7-7CA9-4554-B87E-4035E8CF3F96}">
     <filterColumn colId="1" showButton="0"/>
@@ -11271,9 +11222,9 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="14" width="4.25" style="10"/>
     <col min="15" max="23" width="4.25" style="9"/>
     <col min="24" max="24" width="4.25" style="9" customWidth="1"/>
@@ -11282,7 +11233,7 @@
     <col min="61" max="16384" width="4.25" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:109" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:109" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11417,7 +11368,7 @@
       <c r="CX2" s="33"/>
       <c r="CY2" s="33"/>
     </row>
-    <row r="3" spans="1:109" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:109" ht="54.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -11546,19 +11497,19 @@
       <c r="CX3" s="36"/>
       <c r="CY3" s="36"/>
     </row>
-    <row r="4" spans="1:109" ht="108.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:109" ht="108.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -11569,7 +11520,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
@@ -11595,7 +11546,7 @@
       <c r="AI4" s="18"/>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AL4" s="18"/>
       <c r="AM4" s="18"/>
@@ -11660,7 +11611,7 @@
       <c r="CL4" s="26"/>
       <c r="CM4" s="27"/>
       <c r="CN4" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="CO4" s="18"/>
       <c r="CP4" s="18"/>
@@ -11674,19 +11625,19 @@
       <c r="CX4" s="18"/>
       <c r="CY4" s="18"/>
     </row>
-    <row r="5" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -11697,7 +11648,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -11788,7 +11739,7 @@
       <c r="CL5" s="30"/>
       <c r="CM5" s="30"/>
       <c r="CN5" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="CO5" s="18"/>
       <c r="CP5" s="18"/>
@@ -11803,19 +11754,19 @@
       <c r="CY5" s="18"/>
       <c r="DE5"/>
     </row>
-    <row r="6" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -11826,7 +11777,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -11837,7 +11788,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="X6" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
@@ -11878,7 +11829,7 @@
       <c r="BG6" s="18"/>
       <c r="BH6" s="18"/>
       <c r="BI6" s="18" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="BJ6" s="18"/>
       <c r="BK6" s="18"/>
@@ -11917,7 +11868,7 @@
       <c r="CL6" s="30"/>
       <c r="CM6" s="30"/>
       <c r="CN6" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="CO6" s="18"/>
       <c r="CP6" s="18"/>
@@ -11931,19 +11882,19 @@
       <c r="CX6" s="18"/>
       <c r="CY6" s="18"/>
     </row>
-    <row r="7" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -11954,7 +11905,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
@@ -11965,7 +11916,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
@@ -11980,7 +11931,7 @@
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
@@ -12006,7 +11957,7 @@
       <c r="BG7" s="18"/>
       <c r="BH7" s="18"/>
       <c r="BI7" s="18" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BJ7" s="18"/>
       <c r="BK7" s="18"/>
@@ -12045,7 +11996,7 @@
       <c r="CL7" s="30"/>
       <c r="CM7" s="30"/>
       <c r="CN7" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="CO7" s="18"/>
       <c r="CP7" s="18"/>
@@ -12061,19 +12012,19 @@
       <c r="CX7" s="18"/>
       <c r="CY7" s="18"/>
     </row>
-    <row r="8" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -12084,7 +12035,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -12095,7 +12046,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
       <c r="X8" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
@@ -12110,7 +12061,7 @@
       <c r="AI8" s="18"/>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AL8" s="18"/>
       <c r="AM8" s="18"/>
@@ -12136,7 +12087,7 @@
       <c r="BG8" s="18"/>
       <c r="BH8" s="18"/>
       <c r="BI8" s="18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="BJ8" s="18"/>
       <c r="BK8" s="18"/>
@@ -12175,7 +12126,7 @@
       <c r="CL8" s="30"/>
       <c r="CM8" s="30"/>
       <c r="CN8" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="CO8" s="18"/>
       <c r="CP8" s="18"/>
@@ -12189,19 +12140,19 @@
       <c r="CX8" s="18"/>
       <c r="CY8" s="18"/>
     </row>
-    <row r="9" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:109" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -12212,7 +12163,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -12223,7 +12174,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
@@ -12238,7 +12189,7 @@
       <c r="AI9" s="18"/>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL9" s="18"/>
       <c r="AM9" s="18"/>
@@ -12264,7 +12215,7 @@
       <c r="BG9" s="18"/>
       <c r="BH9" s="18"/>
       <c r="BI9" s="18" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BJ9" s="18"/>
       <c r="BK9" s="18"/>
@@ -12303,7 +12254,7 @@
       <c r="CL9" s="30"/>
       <c r="CM9" s="30"/>
       <c r="CN9" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="CO9" s="18"/>
       <c r="CP9" s="18"/>
@@ -12317,19 +12268,19 @@
       <c r="CX9" s="18"/>
       <c r="CY9" s="18"/>
     </row>
-    <row r="10" spans="1:109" ht="108" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:109" ht="108" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -12340,7 +12291,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
@@ -12351,7 +12302,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
@@ -12366,7 +12317,7 @@
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AL10" s="18"/>
       <c r="AM10" s="18"/>
@@ -12392,7 +12343,7 @@
       <c r="BG10" s="18"/>
       <c r="BH10" s="18"/>
       <c r="BI10" s="18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="BJ10" s="18"/>
       <c r="BK10" s="18"/>
@@ -12431,7 +12382,7 @@
       <c r="CL10" s="30"/>
       <c r="CM10" s="30"/>
       <c r="CN10" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="CO10" s="18"/>
       <c r="CP10" s="18"/>
@@ -12445,19 +12396,19 @@
       <c r="CX10" s="18"/>
       <c r="CY10" s="18"/>
     </row>
-    <row r="11" spans="1:109" ht="163.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:109" ht="163.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -12468,7 +12419,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
@@ -12479,7 +12430,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="X11" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
@@ -12494,7 +12445,7 @@
       <c r="AI11" s="18"/>
       <c r="AJ11" s="18"/>
       <c r="AK11" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AL11" s="18"/>
       <c r="AM11" s="18"/>
@@ -12520,7 +12471,7 @@
       <c r="BG11" s="18"/>
       <c r="BH11" s="18"/>
       <c r="BI11" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="BJ11" s="18"/>
       <c r="BK11" s="18"/>
@@ -12559,7 +12510,7 @@
       <c r="CL11" s="30"/>
       <c r="CM11" s="30"/>
       <c r="CN11" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="CO11" s="18"/>
       <c r="CP11" s="18"/>
@@ -12573,19 +12524,19 @@
       <c r="CX11" s="18"/>
       <c r="CY11" s="18"/>
     </row>
-    <row r="12" spans="1:109" ht="163.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:109" ht="163.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -12596,7 +12547,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
@@ -12607,7 +12558,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
       <c r="X12" s="18" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
@@ -12622,7 +12573,7 @@
       <c r="AI12" s="18"/>
       <c r="AJ12" s="18"/>
       <c r="AK12" s="18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
@@ -12648,7 +12599,7 @@
       <c r="BG12" s="18"/>
       <c r="BH12" s="18"/>
       <c r="BI12" s="18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="BJ12" s="18"/>
       <c r="BK12" s="18"/>
@@ -12687,7 +12638,7 @@
       <c r="CL12" s="30"/>
       <c r="CM12" s="30"/>
       <c r="CN12" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="CO12" s="18"/>
       <c r="CP12" s="18"/>
@@ -12701,19 +12652,19 @@
       <c r="CX12" s="18"/>
       <c r="CY12" s="18"/>
     </row>
-    <row r="13" spans="1:109" ht="141" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:109" ht="141" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -12724,7 +12675,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
@@ -12735,7 +12686,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
@@ -12750,7 +12701,7 @@
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AL13" s="20"/>
       <c r="AM13" s="20"/>
@@ -12776,7 +12727,7 @@
       <c r="BG13" s="18"/>
       <c r="BH13" s="18"/>
       <c r="BI13" s="18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="BJ13" s="18"/>
       <c r="BK13" s="18"/>
@@ -12815,7 +12766,7 @@
       <c r="CL13" s="30"/>
       <c r="CM13" s="30"/>
       <c r="CN13" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CO13" s="18"/>
       <c r="CP13" s="18"/>
@@ -12829,19 +12780,19 @@
       <c r="CX13" s="18"/>
       <c r="CY13" s="18"/>
     </row>
-    <row r="14" spans="1:109" ht="141" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:109" ht="141" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -12852,7 +12803,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
@@ -12863,7 +12814,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
@@ -12878,7 +12829,7 @@
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AL14" s="20"/>
       <c r="AM14" s="20"/>
@@ -12904,7 +12855,7 @@
       <c r="BG14" s="18"/>
       <c r="BH14" s="18"/>
       <c r="BI14" s="18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="BJ14" s="18"/>
       <c r="BK14" s="18"/>
@@ -12943,7 +12894,7 @@
       <c r="CL14" s="30"/>
       <c r="CM14" s="30"/>
       <c r="CN14" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CO14" s="18"/>
       <c r="CP14" s="18"/>
@@ -13522,15 +13473,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075129D6-3782-47EE-A07D-C249B65D98C1}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:CY7"/>
+  <dimension ref="A2:CY15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:N5"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BI6" sqref="BI6:BS6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="4.25" style="10"/>
     <col min="6" max="23" width="4.25" style="9"/>
     <col min="24" max="24" width="4.25" style="9" customWidth="1"/>
@@ -13541,7 +13492,7 @@
     <col min="84" max="16384" width="4.25" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -13660,13 +13611,13 @@
       <c r="CL2" s="39"/>
       <c r="CM2" s="40"/>
       <c r="CN2" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="CO2" s="39"/>
       <c r="CP2" s="39"/>
       <c r="CQ2" s="40"/>
       <c r="CR2" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CS2" s="33"/>
       <c r="CT2" s="33"/>
@@ -13676,7 +13627,7 @@
       <c r="CX2" s="33"/>
       <c r="CY2" s="33"/>
     </row>
-    <row r="3" spans="1:103" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:103" ht="54.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -13765,7 +13716,7 @@
       <c r="BR3" s="36"/>
       <c r="BS3" s="36"/>
       <c r="BT3" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BU3" s="34"/>
       <c r="BV3" s="34"/>
@@ -13807,19 +13758,19 @@
       <c r="CX3" s="36"/>
       <c r="CY3" s="36"/>
     </row>
-    <row r="4" spans="1:103" ht="204" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:103" ht="204" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13">
         <f t="shared" ref="A4:A7" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -13830,7 +13781,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
@@ -13841,7 +13792,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="X4" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
@@ -13855,45 +13806,45 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="18"/>
       <c r="AJ4" s="18"/>
-      <c r="AK4" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="45"/>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="45"/>
-      <c r="BC4" s="45"/>
-      <c r="BD4" s="45"/>
-      <c r="BE4" s="45"/>
-      <c r="BF4" s="45"/>
-      <c r="BG4" s="45"/>
-      <c r="BH4" s="45"/>
-      <c r="BI4" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ4" s="45"/>
-      <c r="BK4" s="45"/>
-      <c r="BL4" s="45"/>
-      <c r="BM4" s="45"/>
-      <c r="BN4" s="45"/>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="45"/>
-      <c r="BQ4" s="45"/>
-      <c r="BR4" s="45"/>
-      <c r="BS4" s="45"/>
+      <c r="AK4" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
       <c r="BT4" s="30" t="s">
         <v>87</v>
       </c>
@@ -13906,7 +13857,7 @@
       <c r="BY4" s="30"/>
       <c r="BZ4" s="30"/>
       <c r="CA4" s="30"/>
-      <c r="CB4" s="46">
+      <c r="CB4" s="47">
         <v>44190</v>
       </c>
       <c r="CC4" s="30"/>
@@ -13921,7 +13872,7 @@
       <c r="CL4" s="26"/>
       <c r="CM4" s="27"/>
       <c r="CN4" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="CO4" s="26"/>
       <c r="CP4" s="26"/>
@@ -13935,19 +13886,19 @@
       <c r="CX4" s="18"/>
       <c r="CY4" s="18"/>
     </row>
-    <row r="5" spans="1:103" ht="222.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:103" ht="223" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -13969,7 +13920,7 @@
       <c r="V5" s="20"/>
       <c r="W5" s="21"/>
       <c r="X5" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
@@ -13983,45 +13934,45 @@
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
-      <c r="AK5" s="45" t="s">
+      <c r="AK5" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="49"/>
-      <c r="BI5" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="48"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="49"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="50"/>
       <c r="BT5" s="25" t="s">
         <v>87</v>
       </c>
@@ -14034,7 +13985,7 @@
       <c r="BY5" s="26"/>
       <c r="BZ5" s="26"/>
       <c r="CA5" s="27"/>
-      <c r="CB5" s="46">
+      <c r="CB5" s="47">
         <v>44190</v>
       </c>
       <c r="CC5" s="30"/>
@@ -14049,7 +14000,7 @@
       <c r="CL5" s="30"/>
       <c r="CM5" s="30"/>
       <c r="CN5" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="CO5" s="26"/>
       <c r="CP5" s="26"/>
@@ -14063,19 +14014,19 @@
       <c r="CX5" s="18"/>
       <c r="CY5" s="18"/>
     </row>
-    <row r="6" spans="1:103" ht="200.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:103" ht="200.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -14111,17 +14062,17 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="18"/>
       <c r="AJ6" s="18"/>
-      <c r="AK6" s="45" t="s">
+      <c r="AK6" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
       <c r="AT6" s="18"/>
       <c r="AU6" s="18"/>
       <c r="AV6" s="18"/>
@@ -14162,7 +14113,7 @@
       <c r="BY6" s="30"/>
       <c r="BZ6" s="30"/>
       <c r="CA6" s="30"/>
-      <c r="CB6" s="46">
+      <c r="CB6" s="47">
         <v>44190</v>
       </c>
       <c r="CC6" s="30"/>
@@ -14177,7 +14128,7 @@
       <c r="CL6" s="30"/>
       <c r="CM6" s="30"/>
       <c r="CN6" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="CO6" s="26"/>
       <c r="CP6" s="26"/>
@@ -14191,17 +14142,17 @@
       <c r="CX6" s="18"/>
       <c r="CY6" s="18"/>
     </row>
-    <row r="7" spans="1:103" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:103" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="18" t="s">
         <v>86</v>
       </c>
@@ -14213,17 +14164,17 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
+      <c r="O7" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
       <c r="X7" s="18" t="s">
         <v>85</v>
       </c>
@@ -14239,17 +14190,17 @@
       <c r="AH7" s="18"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
-      <c r="AK7" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
+      <c r="AK7" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
       <c r="AT7" s="18"/>
       <c r="AU7" s="18"/>
       <c r="AV7" s="18"/>
@@ -14290,7 +14241,7 @@
       <c r="BY7" s="30"/>
       <c r="BZ7" s="30"/>
       <c r="CA7" s="30"/>
-      <c r="CB7" s="46">
+      <c r="CB7" s="47">
         <v>44190</v>
       </c>
       <c r="CC7" s="30"/>
@@ -14305,7 +14256,7 @@
       <c r="CL7" s="30"/>
       <c r="CM7" s="30"/>
       <c r="CN7" s="25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="CO7" s="26"/>
       <c r="CP7" s="26"/>
@@ -14318,6 +14269,68 @@
       <c r="CW7" s="18"/>
       <c r="CX7" s="18"/>
       <c r="CY7" s="18"/>
+    </row>
+    <row r="10" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK10" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+    </row>
+    <row r="11" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+    </row>
+    <row r="12" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+    </row>
+    <row r="13" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+    </row>
+    <row r="14" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+    </row>
+    <row r="15" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:CY7" xr:uid="{63163A64-F761-4844-B745-5639E71203CD}">
@@ -14410,14 +14423,12 @@
     <filterColumn colId="100" showButton="0"/>
     <filterColumn colId="101" showButton="0"/>
   </autoFilter>
-  <mergeCells count="84">
-    <mergeCell ref="O7:W7"/>
+  <mergeCells count="85">
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="O3:W3"/>
     <mergeCell ref="O4:W4"/>
     <mergeCell ref="O5:W5"/>
     <mergeCell ref="O6:W6"/>
-    <mergeCell ref="CN6:CQ6"/>
     <mergeCell ref="CN7:CQ7"/>
     <mergeCell ref="X2:AJ2"/>
     <mergeCell ref="X3:AJ3"/>
@@ -14433,32 +14444,27 @@
     <mergeCell ref="CJ7:CM7"/>
     <mergeCell ref="CB7:CE7"/>
     <mergeCell ref="AT4:BH4"/>
-    <mergeCell ref="BI4:BS4"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="BT2:BW2"/>
-    <mergeCell ref="CF6:CI6"/>
-    <mergeCell ref="CJ6:CM6"/>
-    <mergeCell ref="CJ5:CM5"/>
     <mergeCell ref="CB6:CE6"/>
     <mergeCell ref="CJ2:CM2"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="BT5:BW5"/>
+    <mergeCell ref="CN6:CQ6"/>
+    <mergeCell ref="AT6:BH6"/>
+    <mergeCell ref="BI6:BS6"/>
+    <mergeCell ref="BX6:CA6"/>
+    <mergeCell ref="CF4:CI4"/>
     <mergeCell ref="AK4:AS4"/>
     <mergeCell ref="BT6:BW6"/>
-    <mergeCell ref="CN2:CQ2"/>
-    <mergeCell ref="CN3:CQ3"/>
-    <mergeCell ref="CN4:CQ4"/>
-    <mergeCell ref="CN5:CQ5"/>
-    <mergeCell ref="CB2:CE2"/>
-    <mergeCell ref="CB3:CE3"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CJ4:CM4"/>
     <mergeCell ref="AK5:AS5"/>
     <mergeCell ref="AT5:BH5"/>
     <mergeCell ref="BI5:BS5"/>
     <mergeCell ref="BX5:CA5"/>
     <mergeCell ref="CF5:CI5"/>
     <mergeCell ref="CB5:CE5"/>
-    <mergeCell ref="CR6:CY6"/>
-    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="BI4:BS4"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="CF6:CI6"/>
     <mergeCell ref="AT2:BH2"/>
     <mergeCell ref="BI2:BS2"/>
     <mergeCell ref="CF2:CI2"/>
@@ -14468,13 +14474,9 @@
     <mergeCell ref="CF3:CI3"/>
     <mergeCell ref="BX2:CA2"/>
     <mergeCell ref="BX3:CA3"/>
-    <mergeCell ref="AK6:AS6"/>
-    <mergeCell ref="AT6:BH6"/>
-    <mergeCell ref="BI6:BS6"/>
-    <mergeCell ref="BX6:CA6"/>
-    <mergeCell ref="CF4:CI4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="BT5:BW5"/>
+    <mergeCell ref="CB2:CE2"/>
+    <mergeCell ref="CB3:CE3"/>
+    <mergeCell ref="BT2:BW2"/>
     <mergeCell ref="CR2:CY2"/>
     <mergeCell ref="CR3:CY3"/>
     <mergeCell ref="CR4:CY4"/>
@@ -14482,11 +14484,16 @@
     <mergeCell ref="BT7:BW7"/>
     <mergeCell ref="CJ3:CM3"/>
     <mergeCell ref="CR7:CY7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="BT3:BW3"/>
+    <mergeCell ref="CR6:CY6"/>
+    <mergeCell ref="CN2:CQ2"/>
+    <mergeCell ref="CN3:CQ3"/>
+    <mergeCell ref="CN4:CQ4"/>
+    <mergeCell ref="CN5:CQ5"/>
+    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="CJ6:CM6"/>
+    <mergeCell ref="CJ5:CM5"/>
+    <mergeCell ref="AK10:AR15"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F2:N2"/>
     <mergeCell ref="F3:N3"/>
@@ -14494,7 +14501,14 @@
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
     <mergeCell ref="F7:N7"/>
-    <mergeCell ref="BT3:BW3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AK6:AS6"/>
+    <mergeCell ref="O7:W7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="X3:AC4 AG3:BS4 A3:N5 AK5:BS5 AK6:BH6 A6:E7 BX3:CM3 BX4:CA7 CF4:CM7 CN3:CY7 F7:W7 BT3:BW7 AG7:BS7">
@@ -14601,13 +14615,13 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:CY26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BI12" sqref="BI12:BS12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="4.25" style="10"/>
     <col min="6" max="23" width="4.25" style="9"/>
     <col min="24" max="24" width="4.25" style="9" customWidth="1"/>
@@ -14616,7 +14630,7 @@
     <col min="61" max="16384" width="4.25" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -14735,13 +14749,13 @@
       <c r="CL2" s="39"/>
       <c r="CM2" s="40"/>
       <c r="CN2" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="CO2" s="39"/>
       <c r="CP2" s="39"/>
       <c r="CQ2" s="40"/>
       <c r="CR2" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CS2" s="33"/>
       <c r="CT2" s="33"/>
@@ -14751,7 +14765,7 @@
       <c r="CX2" s="33"/>
       <c r="CY2" s="33"/>
     </row>
-    <row r="3" spans="1:103" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:103" ht="54.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -14840,7 +14854,7 @@
       <c r="BR3" s="36"/>
       <c r="BS3" s="36"/>
       <c r="BT3" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BU3" s="34"/>
       <c r="BV3" s="34"/>
@@ -14882,19 +14896,19 @@
       <c r="CX3" s="36"/>
       <c r="CY3" s="36"/>
     </row>
-    <row r="4" spans="1:103" ht="204" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:103" ht="204" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -14905,7 +14919,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
@@ -14915,32 +14929,32 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
-      <c r="X4" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
+      <c r="X4" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
       <c r="AT4" s="18"/>
       <c r="AU4" s="18"/>
       <c r="AV4" s="18"/>
@@ -14956,19 +14970,19 @@
       <c r="BF4" s="18"/>
       <c r="BG4" s="18"/>
       <c r="BH4" s="18"/>
-      <c r="BI4" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ4" s="53"/>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="53"/>
-      <c r="BM4" s="53"/>
-      <c r="BN4" s="53"/>
-      <c r="BO4" s="53"/>
-      <c r="BP4" s="53"/>
-      <c r="BQ4" s="53"/>
-      <c r="BR4" s="53"/>
-      <c r="BS4" s="53"/>
+      <c r="BI4" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
       <c r="BT4" s="30" t="s">
         <v>87</v>
       </c>
@@ -14976,7 +14990,7 @@
       <c r="BV4" s="30"/>
       <c r="BW4" s="30"/>
       <c r="BX4" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY4" s="30"/>
       <c r="BZ4" s="30"/>
@@ -14994,7 +15008,7 @@
       <c r="CL4" s="26"/>
       <c r="CM4" s="27"/>
       <c r="CN4" s="25" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="CO4" s="26"/>
       <c r="CP4" s="26"/>
@@ -15008,19 +15022,19 @@
       <c r="CX4" s="18"/>
       <c r="CY4" s="18"/>
     </row>
-    <row r="5" spans="1:103" ht="222.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:103" ht="223" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13">
         <f t="shared" ref="A5:A17" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -15031,7 +15045,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -15042,7 +15056,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
@@ -15056,17 +15070,17 @@
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
-      <c r="AK5" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
+      <c r="AK5" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="51"/>
       <c r="AT5" s="19"/>
       <c r="AU5" s="20"/>
       <c r="AV5" s="20"/>
@@ -15083,7 +15097,7 @@
       <c r="BG5" s="20"/>
       <c r="BH5" s="21"/>
       <c r="BI5" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="BJ5" s="18"/>
       <c r="BK5" s="18"/>
@@ -15102,7 +15116,7 @@
       <c r="BV5" s="26"/>
       <c r="BW5" s="27"/>
       <c r="BX5" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY5" s="30"/>
       <c r="BZ5" s="30"/>
@@ -15120,7 +15134,7 @@
       <c r="CL5" s="30"/>
       <c r="CM5" s="30"/>
       <c r="CN5" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="CO5" s="26"/>
       <c r="CP5" s="26"/>
@@ -15134,19 +15148,19 @@
       <c r="CX5" s="18"/>
       <c r="CY5" s="18"/>
     </row>
-    <row r="6" spans="1:103" ht="200.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:103" ht="200.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -15157,7 +15171,7 @@
       <c r="M6" s="20"/>
       <c r="N6" s="21"/>
       <c r="O6" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -15168,7 +15182,7 @@
       <c r="V6" s="20"/>
       <c r="W6" s="21"/>
       <c r="X6" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
@@ -15182,17 +15196,17 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="18"/>
       <c r="AJ6" s="18"/>
-      <c r="AK6" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
+      <c r="AK6" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
       <c r="AT6" s="18"/>
       <c r="AU6" s="18"/>
       <c r="AV6" s="18"/>
@@ -15209,7 +15223,7 @@
       <c r="BG6" s="18"/>
       <c r="BH6" s="18"/>
       <c r="BI6" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="BJ6" s="18"/>
       <c r="BK6" s="18"/>
@@ -15228,7 +15242,7 @@
       <c r="BV6" s="30"/>
       <c r="BW6" s="30"/>
       <c r="BX6" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY6" s="30"/>
       <c r="BZ6" s="30"/>
@@ -15246,7 +15260,7 @@
       <c r="CL6" s="30"/>
       <c r="CM6" s="30"/>
       <c r="CN6" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="CO6" s="26"/>
       <c r="CP6" s="26"/>
@@ -15260,19 +15274,19 @@
       <c r="CX6" s="18"/>
       <c r="CY6" s="18"/>
     </row>
-    <row r="7" spans="1:103" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:103" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -15283,7 +15297,7 @@
       <c r="M7" s="20"/>
       <c r="N7" s="21"/>
       <c r="O7" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -15293,30 +15307,30 @@
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="21"/>
-      <c r="X7" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
+      <c r="X7" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
       <c r="AT7" s="18"/>
       <c r="AU7" s="18"/>
       <c r="AV7" s="18"/>
@@ -15333,7 +15347,7 @@
       <c r="BG7" s="18"/>
       <c r="BH7" s="18"/>
       <c r="BI7" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="BJ7" s="18"/>
       <c r="BK7" s="18"/>
@@ -15352,7 +15366,7 @@
       <c r="BV7" s="30"/>
       <c r="BW7" s="30"/>
       <c r="BX7" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY7" s="30"/>
       <c r="BZ7" s="30"/>
@@ -15370,7 +15384,7 @@
       <c r="CL7" s="30"/>
       <c r="CM7" s="30"/>
       <c r="CN7" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="CO7" s="26"/>
       <c r="CP7" s="26"/>
@@ -15384,19 +15398,19 @@
       <c r="CX7" s="18"/>
       <c r="CY7" s="18"/>
     </row>
-    <row r="8" spans="1:103" ht="110.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:103" ht="110.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -15407,7 +15421,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="21"/>
       <c r="O8" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
@@ -15418,7 +15432,7 @@
       <c r="V8" s="20"/>
       <c r="W8" s="21"/>
       <c r="X8" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
@@ -15433,7 +15447,7 @@
       <c r="AI8" s="18"/>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AL8" s="18"/>
       <c r="AM8" s="18"/>
@@ -15459,7 +15473,7 @@
       <c r="BG8" s="18"/>
       <c r="BH8" s="18"/>
       <c r="BI8" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BJ8" s="18"/>
       <c r="BK8" s="18"/>
@@ -15478,7 +15492,7 @@
       <c r="BV8" s="30"/>
       <c r="BW8" s="30"/>
       <c r="BX8" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY8" s="30"/>
       <c r="BZ8" s="30"/>
@@ -15496,7 +15510,7 @@
       <c r="CL8" s="30"/>
       <c r="CM8" s="30"/>
       <c r="CN8" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="CO8" s="26"/>
       <c r="CP8" s="26"/>
@@ -15510,19 +15524,19 @@
       <c r="CX8" s="18"/>
       <c r="CY8" s="18"/>
     </row>
-    <row r="9" spans="1:103" ht="110.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:103" ht="110.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -15533,7 +15547,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="21"/>
       <c r="O9" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
@@ -15543,30 +15557,30 @@
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
+      <c r="X9" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
       <c r="AT9" s="18"/>
       <c r="AU9" s="18"/>
       <c r="AV9" s="18"/>
@@ -15583,7 +15597,7 @@
       <c r="BG9" s="18"/>
       <c r="BH9" s="18"/>
       <c r="BI9" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="BJ9" s="18"/>
       <c r="BK9" s="18"/>
@@ -15602,7 +15616,7 @@
       <c r="BV9" s="30"/>
       <c r="BW9" s="30"/>
       <c r="BX9" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY9" s="30"/>
       <c r="BZ9" s="30"/>
@@ -15620,7 +15634,7 @@
       <c r="CL9" s="30"/>
       <c r="CM9" s="30"/>
       <c r="CN9" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="CO9" s="26"/>
       <c r="CP9" s="26"/>
@@ -15634,19 +15648,19 @@
       <c r="CX9" s="18"/>
       <c r="CY9" s="18"/>
     </row>
-    <row r="10" spans="1:103" ht="110.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:103" ht="110.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -15657,7 +15671,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="21"/>
       <c r="O10" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
@@ -15667,30 +15681,30 @@
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
+      <c r="X10" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
       <c r="AT10" s="18"/>
       <c r="AU10" s="18"/>
       <c r="AV10" s="18"/>
@@ -15707,7 +15721,7 @@
       <c r="BG10" s="18"/>
       <c r="BH10" s="18"/>
       <c r="BI10" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="BJ10" s="18"/>
       <c r="BK10" s="18"/>
@@ -15726,7 +15740,7 @@
       <c r="BV10" s="30"/>
       <c r="BW10" s="30"/>
       <c r="BX10" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY10" s="30"/>
       <c r="BZ10" s="30"/>
@@ -15744,7 +15758,7 @@
       <c r="CL10" s="30"/>
       <c r="CM10" s="30"/>
       <c r="CN10" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="CO10" s="26"/>
       <c r="CP10" s="26"/>
@@ -15758,19 +15772,19 @@
       <c r="CX10" s="18"/>
       <c r="CY10" s="18"/>
     </row>
-    <row r="11" spans="1:103" ht="110.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:103" ht="110.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -15781,7 +15795,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
@@ -15792,7 +15806,7 @@
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
       <c r="X11" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
@@ -15807,7 +15821,7 @@
       <c r="AI11" s="18"/>
       <c r="AJ11" s="18"/>
       <c r="AK11" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AL11" s="18"/>
       <c r="AM11" s="18"/>
@@ -15833,7 +15847,7 @@
       <c r="BG11" s="18"/>
       <c r="BH11" s="18"/>
       <c r="BI11" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BJ11" s="18"/>
       <c r="BK11" s="18"/>
@@ -15852,7 +15866,7 @@
       <c r="BV11" s="30"/>
       <c r="BW11" s="30"/>
       <c r="BX11" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY11" s="30"/>
       <c r="BZ11" s="30"/>
@@ -15870,7 +15884,7 @@
       <c r="CL11" s="30"/>
       <c r="CM11" s="30"/>
       <c r="CN11" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="CO11" s="26"/>
       <c r="CP11" s="26"/>
@@ -15884,19 +15898,19 @@
       <c r="CX11" s="18"/>
       <c r="CY11" s="18"/>
     </row>
-    <row r="12" spans="1:103" ht="110.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:103" ht="110.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -15907,7 +15921,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
@@ -15918,7 +15932,7 @@
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
       <c r="X12" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
@@ -15933,7 +15947,7 @@
       <c r="AI12" s="18"/>
       <c r="AJ12" s="18"/>
       <c r="AK12" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
@@ -15959,7 +15973,7 @@
       <c r="BG12" s="18"/>
       <c r="BH12" s="18"/>
       <c r="BI12" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BJ12" s="18"/>
       <c r="BK12" s="18"/>
@@ -15978,7 +15992,7 @@
       <c r="BV12" s="30"/>
       <c r="BW12" s="30"/>
       <c r="BX12" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY12" s="30"/>
       <c r="BZ12" s="30"/>
@@ -15996,7 +16010,7 @@
       <c r="CL12" s="30"/>
       <c r="CM12" s="30"/>
       <c r="CN12" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="CO12" s="26"/>
       <c r="CP12" s="26"/>
@@ -16010,19 +16024,19 @@
       <c r="CX12" s="18"/>
       <c r="CY12" s="18"/>
     </row>
-    <row r="13" spans="1:103" ht="184.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:103" ht="184.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -16033,7 +16047,7 @@
       <c r="M13" s="20"/>
       <c r="N13" s="21"/>
       <c r="O13" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
@@ -16044,7 +16058,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
@@ -16058,17 +16072,17 @@
       <c r="AH13" s="18"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
-      <c r="AK13" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
+      <c r="AK13" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
       <c r="AT13" s="18"/>
       <c r="AU13" s="18"/>
       <c r="AV13" s="18"/>
@@ -16085,7 +16099,7 @@
       <c r="BG13" s="18"/>
       <c r="BH13" s="18"/>
       <c r="BI13" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="BJ13" s="18"/>
       <c r="BK13" s="18"/>
@@ -16104,7 +16118,7 @@
       <c r="BV13" s="30"/>
       <c r="BW13" s="30"/>
       <c r="BX13" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY13" s="30"/>
       <c r="BZ13" s="30"/>
@@ -16122,7 +16136,7 @@
       <c r="CL13" s="30"/>
       <c r="CM13" s="30"/>
       <c r="CN13" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="CO13" s="26"/>
       <c r="CP13" s="26"/>
@@ -16136,19 +16150,19 @@
       <c r="CX13" s="18"/>
       <c r="CY13" s="18"/>
     </row>
-    <row r="14" spans="1:103" ht="191.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:103" ht="191.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -16159,7 +16173,7 @@
       <c r="M14" s="20"/>
       <c r="N14" s="21"/>
       <c r="O14" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
@@ -16170,7 +16184,7 @@
       <c r="V14" s="20"/>
       <c r="W14" s="21"/>
       <c r="X14" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
@@ -16184,17 +16198,17 @@
       <c r="AH14" s="18"/>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
-      <c r="AK14" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
+      <c r="AK14" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="46"/>
       <c r="AT14" s="18"/>
       <c r="AU14" s="18"/>
       <c r="AV14" s="18"/>
@@ -16210,19 +16224,19 @@
       <c r="BF14" s="18"/>
       <c r="BG14" s="18"/>
       <c r="BH14" s="18"/>
-      <c r="BI14" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="BJ14" s="53"/>
-      <c r="BK14" s="53"/>
-      <c r="BL14" s="53"/>
-      <c r="BM14" s="53"/>
-      <c r="BN14" s="53"/>
-      <c r="BO14" s="53"/>
-      <c r="BP14" s="53"/>
-      <c r="BQ14" s="53"/>
-      <c r="BR14" s="53"/>
-      <c r="BS14" s="53"/>
+      <c r="BI14" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
+      <c r="BN14" s="51"/>
+      <c r="BO14" s="51"/>
+      <c r="BP14" s="51"/>
+      <c r="BQ14" s="51"/>
+      <c r="BR14" s="51"/>
+      <c r="BS14" s="51"/>
       <c r="BT14" s="30" t="s">
         <v>87</v>
       </c>
@@ -16230,7 +16244,7 @@
       <c r="BV14" s="30"/>
       <c r="BW14" s="30"/>
       <c r="BX14" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY14" s="30"/>
       <c r="BZ14" s="30"/>
@@ -16248,7 +16262,7 @@
       <c r="CL14" s="30"/>
       <c r="CM14" s="30"/>
       <c r="CN14" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="CO14" s="26"/>
       <c r="CP14" s="26"/>
@@ -16262,19 +16276,19 @@
       <c r="CX14" s="18"/>
       <c r="CY14" s="18"/>
     </row>
-    <row r="15" spans="1:103" ht="117.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:103" ht="117.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -16285,7 +16299,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="21"/>
       <c r="O15" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -16295,30 +16309,30 @@
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="21"/>
-      <c r="X15" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
+      <c r="X15" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
       <c r="AT15" s="18"/>
       <c r="AU15" s="18"/>
       <c r="AV15" s="18"/>
@@ -16335,7 +16349,7 @@
       <c r="BG15" s="18"/>
       <c r="BH15" s="18"/>
       <c r="BI15" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="BJ15" s="18"/>
       <c r="BK15" s="18"/>
@@ -16354,7 +16368,7 @@
       <c r="BV15" s="30"/>
       <c r="BW15" s="30"/>
       <c r="BX15" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY15" s="30"/>
       <c r="BZ15" s="30"/>
@@ -16372,7 +16386,7 @@
       <c r="CL15" s="30"/>
       <c r="CM15" s="30"/>
       <c r="CN15" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="CO15" s="26"/>
       <c r="CP15" s="26"/>
@@ -16386,19 +16400,19 @@
       <c r="CX15" s="18"/>
       <c r="CY15" s="18"/>
     </row>
-    <row r="16" spans="1:103" ht="117.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:103" ht="117.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -16409,7 +16423,7 @@
       <c r="M16" s="20"/>
       <c r="N16" s="21"/>
       <c r="O16" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -16420,7 +16434,7 @@
       <c r="V16" s="20"/>
       <c r="W16" s="21"/>
       <c r="X16" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
@@ -16434,15 +16448,15 @@
       <c r="AH16" s="18"/>
       <c r="AI16" s="18"/>
       <c r="AJ16" s="18"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
       <c r="AT16" s="18"/>
       <c r="AU16" s="18"/>
       <c r="AV16" s="18"/>
@@ -16459,7 +16473,7 @@
       <c r="BG16" s="18"/>
       <c r="BH16" s="18"/>
       <c r="BI16" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BJ16" s="18"/>
       <c r="BK16" s="18"/>
@@ -16478,7 +16492,7 @@
       <c r="BV16" s="30"/>
       <c r="BW16" s="30"/>
       <c r="BX16" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY16" s="30"/>
       <c r="BZ16" s="30"/>
@@ -16496,7 +16510,7 @@
       <c r="CL16" s="30"/>
       <c r="CM16" s="30"/>
       <c r="CN16" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="CO16" s="26"/>
       <c r="CP16" s="26"/>
@@ -16510,19 +16524,19 @@
       <c r="CX16" s="18"/>
       <c r="CY16" s="18"/>
     </row>
-    <row r="17" spans="1:103" s="12" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:103" s="12" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -16533,7 +16547,7 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -16544,7 +16558,7 @@
       <c r="V17" s="30"/>
       <c r="W17" s="30"/>
       <c r="X17" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
@@ -16559,7 +16573,7 @@
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AL17" s="18"/>
       <c r="AM17" s="18"/>
@@ -16585,7 +16599,7 @@
       <c r="BG17" s="18"/>
       <c r="BH17" s="18"/>
       <c r="BI17" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="BJ17" s="18"/>
       <c r="BK17" s="18"/>
@@ -16604,7 +16618,7 @@
       <c r="BV17" s="30"/>
       <c r="BW17" s="30"/>
       <c r="BX17" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY17" s="30"/>
       <c r="BZ17" s="30"/>
@@ -16622,7 +16636,7 @@
       <c r="CL17" s="30"/>
       <c r="CM17" s="30"/>
       <c r="CN17" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="CO17" s="26"/>
       <c r="CP17" s="26"/>
@@ -16636,16 +16650,16 @@
       <c r="CX17" s="32"/>
       <c r="CY17" s="32"/>
     </row>
-    <row r="18" spans="1:103" ht="117.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:103" ht="117.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11"/>
       <c r="B18" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -16656,7 +16670,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
@@ -16667,7 +16681,7 @@
       <c r="V18" s="30"/>
       <c r="W18" s="30"/>
       <c r="X18" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
@@ -16682,7 +16696,7 @@
       <c r="AI18" s="18"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AL18" s="18"/>
       <c r="AM18" s="18"/>
@@ -16708,7 +16722,7 @@
       <c r="BG18" s="18"/>
       <c r="BH18" s="18"/>
       <c r="BI18" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BJ18" s="18"/>
       <c r="BK18" s="18"/>
@@ -16727,7 +16741,7 @@
       <c r="BV18" s="30"/>
       <c r="BW18" s="30"/>
       <c r="BX18" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="BY18" s="30"/>
       <c r="BZ18" s="30"/>
@@ -16745,7 +16759,7 @@
       <c r="CL18" s="30"/>
       <c r="CM18" s="30"/>
       <c r="CN18" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="CO18" s="26"/>
       <c r="CP18" s="26"/>
@@ -16759,117 +16773,115 @@
       <c r="CX18" s="18"/>
       <c r="CY18" s="18"/>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="Y21" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AL21" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52"/>
+    <row r="21" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AL21" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
     </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="54"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="52"/>
-      <c r="AQ22" s="52"/>
-      <c r="AR22" s="52"/>
-      <c r="AS22" s="52"/>
+    <row r="22" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
     </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AL23" s="52"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="52"/>
-      <c r="AQ23" s="52"/>
-      <c r="AR23" s="52"/>
-      <c r="AS23" s="52"/>
+    <row r="23" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="54"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="54"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
+    <row r="24" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
+    <row r="25" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="42"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="52"/>
-      <c r="AN26" s="52"/>
-      <c r="AO26" s="52"/>
-      <c r="AP26" s="52"/>
-      <c r="AQ26" s="52"/>
-      <c r="AR26" s="52"/>
-      <c r="AS26" s="52"/>
+    <row r="26" spans="1:103" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:CY18" xr:uid="{63163A64-F761-4844-B745-5639E71203CD}">
@@ -17125,10 +17137,6 @@
     <mergeCell ref="X7:AJ7"/>
     <mergeCell ref="AK7:AS7"/>
     <mergeCell ref="AT7:BH7"/>
-    <mergeCell ref="BI7:BS7"/>
-    <mergeCell ref="BT7:BW7"/>
-    <mergeCell ref="BI6:BS6"/>
-    <mergeCell ref="BT6:BW6"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:N6"/>
     <mergeCell ref="CF5:CI5"/>
@@ -17139,6 +17147,7 @@
     <mergeCell ref="CF7:CI7"/>
     <mergeCell ref="CJ7:CM7"/>
     <mergeCell ref="CN7:CQ7"/>
+    <mergeCell ref="O6:W6"/>
     <mergeCell ref="CR7:CY7"/>
     <mergeCell ref="CN6:CQ6"/>
     <mergeCell ref="CR6:CY6"/>
@@ -17149,12 +17158,15 @@
     <mergeCell ref="X4:AJ4"/>
     <mergeCell ref="AK4:AS4"/>
     <mergeCell ref="AT4:BH4"/>
-    <mergeCell ref="O6:W6"/>
     <mergeCell ref="X6:AJ6"/>
     <mergeCell ref="AK6:AS6"/>
     <mergeCell ref="AT6:BH6"/>
     <mergeCell ref="BX5:CA5"/>
     <mergeCell ref="CB5:CE5"/>
+    <mergeCell ref="BI7:BS7"/>
+    <mergeCell ref="BT7:BW7"/>
+    <mergeCell ref="BI6:BS6"/>
+    <mergeCell ref="BT6:BW6"/>
     <mergeCell ref="X2:AJ2"/>
     <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="AT2:BH2"/>
